--- a/static/excelfolder/to_csv.xlsx
+++ b/static/excelfolder/to_csv.xlsx
@@ -2,9 +2,8 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
@@ -17,10 +16,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <b val="1"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
@@ -34,7 +41,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,15 +49,33 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
@@ -413,71 +438,88 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B8"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>1</t>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>国語</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>数学</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>理科</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>社会</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>英語</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>2</t>
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>生徒1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>20</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>30</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>50</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>生徒2</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
+      <c r="B4" t="inlineStr">
         <is>
           <t>200</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>B5100</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>B6100</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>